--- a/public/download-sample.xlsx
+++ b/public/download-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParimiSandeep\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A95F92-17B7-4BD6-A577-BCBF6F6A8B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043BC29-1AA1-40EE-8CA9-7E620FDFB798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15525" yWindow="1095" windowWidth="11730" windowHeight="10770" xr2:uid="{032DC981-0FA4-4B04-9D76-DF66EAF57A75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{032DC981-0FA4-4B04-9D76-DF66EAF57A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
@@ -36,105 +36,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Garry</t>
+  </si>
+  <si>
+    <t>AI Advanced</t>
+  </si>
+  <si>
+    <t>AI ML Advanced</t>
+  </si>
+  <si>
+    <t>certificationID</t>
+  </si>
+  <si>
+    <t>certificationName</t>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t>12/12/30</t>
+  </si>
+  <si>
+    <t>12/12/31</t>
+  </si>
+  <si>
+    <t>grantDate</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>12/12/33</t>
+  </si>
+  <si>
+    <t>12/12/34</t>
+  </si>
+  <si>
+    <t>12/11/81</t>
+  </si>
+  <si>
+    <t>12/11/76</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>1APMP01916210</t>
+  </si>
+  <si>
+    <t>1APMP01916221</t>
+  </si>
+  <si>
+    <t>1APMP01916232</t>
+  </si>
+  <si>
+    <t>1APMP01916243</t>
+  </si>
+  <si>
+    <t>1APMP01916254</t>
+  </si>
   <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>Sams</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Fletcher</t>
-  </si>
-  <si>
-    <t>Garry</t>
-  </si>
-  <si>
-    <t>AI Advanced</t>
-  </si>
-  <si>
-    <t>AI ML Advanced</t>
-  </si>
-  <si>
-    <t>certificationID</t>
-  </si>
-  <si>
-    <t>certificationName</t>
-  </si>
-  <si>
-    <t>expirationDate</t>
-  </si>
-  <si>
-    <t>12/12/24</t>
-  </si>
-  <si>
-    <t>12/12/25</t>
-  </si>
-  <si>
-    <t>12/12/26</t>
-  </si>
-  <si>
-    <t>12/12/27</t>
-  </si>
-  <si>
-    <t>12/12/28</t>
-  </si>
-  <si>
-    <t>12/12/29</t>
-  </si>
-  <si>
-    <t>12/12/30</t>
-  </si>
-  <si>
-    <t>12/12/31</t>
-  </si>
-  <si>
-    <t>12/12/32</t>
-  </si>
-  <si>
-    <t>12/11/25</t>
-  </si>
-  <si>
-    <t>12/11/26</t>
-  </si>
-  <si>
-    <t>12/11/27</t>
-  </si>
-  <si>
-    <t>12/11/28</t>
-  </si>
-  <si>
-    <t>12/11/29</t>
-  </si>
-  <si>
-    <t>12/11/30</t>
-  </si>
-  <si>
-    <t>12/11/31</t>
-  </si>
-  <si>
-    <t>12/11/32</t>
-  </si>
-  <si>
-    <t>12/11/33</t>
-  </si>
-  <si>
-    <t>grantDate</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
 </sst>
 </file>
@@ -496,189 +466,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E4FA75-F7E1-40F3-B328-BE1BDA977D88}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>16784400</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>16784401</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>16784402</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>16784403</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>16784404</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>16784405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>16784406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>16784407</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>16784408</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="2"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="2"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="2"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="2"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="2"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="2"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="2"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="2"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="2"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="2"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="2"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="2"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="2"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="2"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="2"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="2"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="2"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="2"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="2"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="2"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="2"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="2"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="2"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="2"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="2"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="2"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="2"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="2"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="2"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="2"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="2"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="2"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="2"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="2"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="2"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="2"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="2"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="2"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="2"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="2"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="2"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="2"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="2"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="2"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="2"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="2"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="2"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="2"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="2"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/download-sample.xlsx
+++ b/public/download-sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParimiSandeep\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcomlearning296-my.sharepoint.com/personal/parimi_sandeep_aicerts_io/Documents/Microsoft Teams Chat Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043BC29-1AA1-40EE-8CA9-7E620FDFB798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{883978A1-28AE-4E27-9205-5BE120883F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D583CA8-746E-4EFA-8189-AE29A97A83FB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{032DC981-0FA4-4B04-9D76-DF66EAF57A75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{032DC981-0FA4-4B04-9D76-DF66EAF57A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Tom</t>
   </si>
@@ -62,49 +62,61 @@
     <t>expirationDate</t>
   </si>
   <si>
-    <t>12/12/30</t>
-  </si>
-  <si>
-    <t>12/12/31</t>
-  </si>
-  <si>
     <t>grantDate</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>12/12/33</t>
-  </si>
-  <si>
-    <t>12/12/34</t>
-  </si>
-  <si>
-    <t>12/11/81</t>
-  </si>
-  <si>
-    <t>12/11/76</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
-    <t>1APMP01916210</t>
-  </si>
-  <si>
-    <t>1APMP01916221</t>
-  </si>
-  <si>
-    <t>1APMP01916232</t>
-  </si>
-  <si>
-    <t>1APMP01916243</t>
-  </si>
-  <si>
-    <t>1APMP01916254</t>
-  </si>
-  <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>1ABMP02926210</t>
+  </si>
+  <si>
+    <t>1ABMP02926211</t>
+  </si>
+  <si>
+    <t>1ABMP02926212</t>
+  </si>
+  <si>
+    <t>1ABMP02926213</t>
+  </si>
+  <si>
+    <t>1ABMP02926214</t>
+  </si>
+  <si>
+    <t>AI Automation</t>
+  </si>
+  <si>
+    <t>08/12/2030</t>
+  </si>
+  <si>
+    <t>01/01/2038</t>
+  </si>
+  <si>
+    <t>12/01/2056</t>
+  </si>
+  <si>
+    <t>03/11/2034</t>
+  </si>
+  <si>
+    <t>02/29/2040</t>
+  </si>
+  <si>
+    <t>02/28/2043</t>
+  </si>
+  <si>
+    <t>02/20/2033</t>
+  </si>
+  <si>
+    <t>04/21/2033</t>
+  </si>
+  <si>
+    <t>06/30/2043</t>
   </si>
 </sst>
 </file>
@@ -469,37 +481,38 @@
   <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -508,15 +521,15 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -525,32 +538,32 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -559,795 +572,795 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
